--- a/CHPunits.xlsx
+++ b/CHPunits.xlsx
@@ -21,6 +21,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,6 +97,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G47" totalsRowShown="0">
+  <autoFilter ref="A1:G47"/>
+  <sortState ref="A2:G47">
+    <sortCondition ref="A1:A47"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,40 +381,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>7</v>
-      </c>
-      <c r="E1">
-        <v>0.11</v>
-      </c>
-      <c r="F1">
-        <v>0.77</v>
-      </c>
-      <c r="G1">
-        <v>0.88</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -378,200 +426,200 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="F3">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="G3">
-        <v>0.85000000000000009</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="E4">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>0.69</v>
       </c>
       <c r="G4">
-        <v>0.96000000000000008</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0.25</v>
       </c>
       <c r="F5">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="G5">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F6">
-        <v>0.75</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="G6">
-        <v>0.95</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3.87</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="E7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F7">
-        <v>0.7</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="G7">
-        <v>0.77</v>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="G8">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="F9">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="G9">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>10.7</v>
       </c>
       <c r="E10">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="F10">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="G10">
-        <v>0.78</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -582,19 +630,19 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G11">
-        <v>0.84</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -605,19 +653,19 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="D12">
-        <v>2.5</v>
+        <v>12.5</v>
       </c>
       <c r="E12">
-        <v>0.26300000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F12">
-        <v>0.65700000000000003</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="G12">
-        <v>0.92</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -628,19 +676,19 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>0.25</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F13">
-        <v>0.69</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="G13">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -651,19 +699,19 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="E14">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="F14">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="G14">
-        <v>0.95</v>
+        <v>0.94000000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -674,19 +722,19 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>13.5</v>
       </c>
       <c r="E15">
-        <v>0.27</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F15">
-        <v>0.67</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G15">
-        <v>0.94000000000000006</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -703,13 +751,13 @@
         <v>13.5</v>
       </c>
       <c r="E16">
-        <v>0.26500000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="F16">
-        <v>0.59499999999999997</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="G16">
-        <v>0.86</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -766,19 +814,19 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E19">
-        <v>0.25</v>
+        <v>0.307</v>
       </c>
       <c r="F19">
-        <v>0.66500000000000004</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="G19">
-        <v>0.91500000000000004</v>
+        <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -789,19 +837,19 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>4.7</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>0.25</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="F20">
-        <v>0.66500000000000004</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="G20">
-        <v>0.91500000000000004</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -812,19 +860,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F21">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="G21">
-        <v>0.95</v>
+        <v>0.91999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -835,19 +883,19 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F22">
-        <v>0.7</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="G22">
-        <v>0.95</v>
+        <v>0.94700000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -858,19 +906,19 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>38.4</v>
       </c>
       <c r="E23">
-        <v>0.25</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="F23">
-        <v>0.7</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="G23">
-        <v>0.95</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -881,19 +929,19 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>10.7</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="F24">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="G24">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -901,22 +949,22 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>3.87</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>8.3800000000000008</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>0.26700000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="F25">
-        <v>0.57799999999999996</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="G25">
-        <v>0.84499999999999997</v>
+        <v>1.0329999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -927,19 +975,19 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>0.26300000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="F26">
-        <v>0.65700000000000003</v>
+        <v>0.62</v>
       </c>
       <c r="G26">
-        <v>0.92</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -950,226 +998,226 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>13.5</v>
+        <v>53.2</v>
       </c>
       <c r="E27">
-        <v>0.29499999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="F27">
-        <v>0.63500000000000001</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="G27">
-        <v>0.92999999999999994</v>
+        <v>0.8879999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0.29499999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
-        <v>0.63500000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G28">
-        <v>0.92999999999999994</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="F29">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="G29">
-        <v>0.91999999999999993</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="F30">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="G30">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>17.399999999999999</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>0.307</v>
+        <v>0.16</v>
       </c>
       <c r="F31">
-        <v>0.53300000000000003</v>
+        <v>0.8</v>
       </c>
       <c r="G31">
-        <v>0.84000000000000008</v>
+        <v>0.96000000000000008</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>38.4</v>
+        <v>19</v>
       </c>
       <c r="E32">
-        <v>0.33500000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="F32">
-        <v>0.51500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G32">
-        <v>0.85000000000000009</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E33">
-        <v>0.32900000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F33">
-        <v>0.61799999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G33">
-        <v>0.94700000000000006</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>1.5</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>0.6</v>
       </c>
       <c r="E34">
-        <v>0.32900000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F34">
-        <v>0.70399999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G34">
-        <v>1.0329999999999999</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="D35">
-        <v>42</v>
+        <v>0.65</v>
       </c>
       <c r="E35">
-        <v>0.29499999999999998</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="F35">
-        <v>0.62</v>
+        <v>0.435</v>
       </c>
       <c r="G35">
-        <v>0.91500000000000004</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>53.2</v>
+        <v>0.9</v>
       </c>
       <c r="E36">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="F36">
-        <v>0.56799999999999995</v>
+        <v>0.85</v>
       </c>
       <c r="G36">
-        <v>0.8879999999999999</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1180,19 +1228,19 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0.33900000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F37">
-        <v>0.61099999999999999</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="G37">
-        <v>0.95</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1203,19 +1251,19 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="E38">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F38">
-        <v>0.25</v>
+        <v>0.51</v>
       </c>
       <c r="G38">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1226,19 +1274,19 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="E39">
-        <v>0.56999999999999995</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="F39">
-        <v>0.28499999999999998</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="G39">
-        <v>0.85499999999999998</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1252,108 +1300,108 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="F40">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="G40">
-        <v>0.81</v>
+        <v>0.90999999999999992</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F41">
         <v>0.7</v>
       </c>
-      <c r="D41">
-        <v>0.65</v>
-      </c>
-      <c r="E41">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="F41">
-        <v>0.435</v>
-      </c>
       <c r="G41">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D42">
-        <v>0.9</v>
+        <v>12</v>
       </c>
       <c r="E42">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="F42">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="G42">
-        <v>1.3</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="F43">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="G43">
-        <v>0.90999999999999992</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0.6</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>0.32700000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F44">
-        <v>0.65300000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G44">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1364,19 +1412,19 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="D45">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="E45">
-        <v>0.34</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F45">
-        <v>0.57999999999999996</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="G45">
-        <v>0.91999999999999993</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1402,7 +1450,33 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>7.5</v>
+      </c>
+      <c r="E47">
+        <v>0.34</v>
+      </c>
+      <c r="F47">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G47">
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>